--- a/brindx/planilha_brindx.xlsx
+++ b/brindx/planilha_brindx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FOR758705-8</t>
+          <t>FOR762578-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/09/25</t>
+          <t>10/10/25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -554,18 +554,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LOTEVENDAS ADMINISTRACAO LTDA</t>
+          <t>UNIMED DE SOBRAL  COOPERATIVA DE TRABALHO MEDICO LTDA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>JUAP</t>
+          <t>SOBP</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1  000150724</t>
+          <t>1  000151671</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -573,17 +573,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>26,500</t>
+          <t>25,400</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>122,10</t>
+          <t>67,82</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>JUAZEIRO DO NORTE</t>
+          <t>SOBRAL</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>25/09/25</t>
+          <t>13/10/25</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>25/09/25</t>
+          <t>13/10/25</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>25/09/25</t>
+          <t>13/10/25</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -618,7 +618,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FOR762578-2</t>
+          <t>FOR762918-4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10/10/25</t>
+          <t>13/10/25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -639,18 +639,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UNIMED DE SOBRAL  COOPERATIVA DE TRABALHO MEDICO LTDA</t>
+          <t>COMERCIAL XIMENES LTDA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SOBP</t>
+          <t>JUAP</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1  000151671</t>
+          <t>1  000151837</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -658,17 +658,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>25,400</t>
+          <t>14,010</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>67,82</t>
+          <t>322,73</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SOBRAL</t>
+          <t>JUAZEIRO DO NORTE</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>13/10/25</t>
+          <t>14/10/25</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>13/10/25</t>
+          <t>14/10/25</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>13/10/25</t>
+          <t>14/10/25</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -703,7 +703,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FOR762918-4</t>
+          <t>FOR762919-2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -724,36 +724,36 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMERCIAL XIMENES LTDA</t>
+          <t>SOCIEDADE BENEFICENTE SAO CAMILO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>JUAP</t>
+          <t>CTSP</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1  000151837</t>
+          <t>1  000151805</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14,010</t>
+          <t>15,800</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>322,73</t>
+          <t>127,37</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>JUAZEIRO DO NORTE</t>
+          <t>CRATEUS</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FOR762919-2</t>
+          <t>FOR763589-3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13/10/25</t>
+          <t>15/10/25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -809,36 +809,36 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SOCIEDADE BENEFICENTE SAO CAMILO</t>
+          <t>CEARA SERVICOS DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CTSP</t>
+          <t>JUAP</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1  000151805</t>
+          <t>1  000152009</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15,800</t>
+          <t>2,808</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>127,37</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CRATEUS</t>
+          <t>JUAZEIRO DO NORTE</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>14/10/25</t>
+          <t>16/10/25</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>14/10/25</t>
+          <t>16/10/25</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14/10/25</t>
+          <t>16/10/25</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -873,7 +873,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FOR763589-3</t>
+          <t>FOR763590-7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -894,36 +894,36 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CEARA SERVICOS DE ATENDIMENTO</t>
+          <t>SOCIEDADE BENEFICENTE SAO CAMILO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>JUAP</t>
+          <t>CTSP</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1  000152009</t>
+          <t>1  000152093</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2,808</t>
+          <t>4,956</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>60,00</t>
+          <t>179,52</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>JUAZEIRO DO NORTE</t>
+          <t>CRATEUS</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>16/10/25</t>
+          <t>17/10/25</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/10/25</t>
+          <t>17/10/25</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -958,7 +958,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FOR763590-7</t>
+          <t>FOR764493-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15/10/25</t>
+          <t>20/10/25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -979,18 +979,18 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SOCIEDADE BENEFICENTE SAO CAMILO</t>
+          <t>ARES COMERCIAL DE MOTOS LTDA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CTSP</t>
+          <t>AS1R</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1  000152093</t>
+          <t>1  000152135</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -998,17 +998,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4,956</t>
+          <t>9,800</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>179,52</t>
+          <t>75,00</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CRATEUS</t>
+          <t>CAMPOS SALES</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1018,17 +1018,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>16/10/25</t>
+          <t>21/10/25</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>17/10/25</t>
+          <t>22/10/25</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>17/10/25</t>
+          <t>22/10/25</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1043,7 +1043,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FOR764493-1</t>
+          <t>FOR764494-9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,18 +1064,18 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARES COMERCIAL DE MOTOS LTDA</t>
+          <t>CEARA SERVICOS DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>AS1R</t>
+          <t>JUAP</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1  000152135</t>
+          <t>1  000152209</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9,800</t>
+          <t>0,197</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>75,00</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CAMPOS SALES</t>
+          <t>JUAZEIRO DO NORTE</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1108,103 +1108,18 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>22/10/25</t>
+          <t>21/10/25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/10/25</t>
+          <t>21/10/25</t>
         </is>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="inlineStr">
-        <is>
-          <t>MERCADORIA ENTREGUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FOR764494-9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20/10/25</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MJ COM. SERV.DE INFORMATICA E</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CEARA SERVICOS DE ATENDIMENTO</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>JUAP</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1  000152209</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0,197</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>60,00</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>JUAZEIRO DO NORTE</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>21/10/25</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>21/10/25</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>21/10/25</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="inlineStr">
         <is>
           <t>MERCADORIA ENTREGUE</t>
         </is>
